--- a/data/trans_orig/IP31AA_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP31AA_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F91742E0-CB08-4619-B186-F4A9F16B2C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{004BAC7F-0391-4B7F-8F5F-E5A89AA5AAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F848C2B8-1421-4F60-A57A-5B5093F8CEAF}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6BCB16E4-B6CF-4F6C-A3A4-D0EE882ACB1F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -131,6 +131,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -186,63 +243,6 @@
   </si>
   <si>
     <t>29,54%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
   </si>
   <si>
     <t>65,89%</t>
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3241B35C-0A29-442A-8D20-035FADEA5061}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC18CC2-5FE3-4190-961A-AA76716C044A}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -961,10 +961,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>343</v>
+        <v>176</v>
       </c>
       <c r="D7" s="7">
-        <v>288768</v>
+        <v>137247</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -976,10 +976,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>361</v>
+        <v>182</v>
       </c>
       <c r="I7" s="7">
-        <v>265703</v>
+        <v>130865</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -991,10 +991,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>704</v>
+        <v>358</v>
       </c>
       <c r="N7" s="7">
-        <v>554470</v>
+        <v>268112</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1012,10 +1012,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="D8" s="7">
-        <v>112152</v>
+        <v>65772</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1027,10 +1027,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I8" s="7">
-        <v>82788</v>
+        <v>67012</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1042,10 +1042,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="N8" s="7">
-        <v>194940</v>
+        <v>132783</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1063,10 +1063,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>477</v>
+        <v>268</v>
       </c>
       <c r="D9" s="7">
-        <v>400920</v>
+        <v>203019</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1078,10 +1078,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>460</v>
+        <v>280</v>
       </c>
       <c r="I9" s="7">
-        <v>348491</v>
+        <v>197877</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1093,10 +1093,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>937</v>
+        <v>548</v>
       </c>
       <c r="N9" s="7">
-        <v>749410</v>
+        <v>400895</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1116,10 +1116,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>176</v>
+        <v>343</v>
       </c>
       <c r="D10" s="7">
-        <v>137247</v>
+        <v>288768</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1131,10 +1131,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>182</v>
+        <v>361</v>
       </c>
       <c r="I10" s="7">
-        <v>130865</v>
+        <v>265703</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1146,10 +1146,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>358</v>
+        <v>704</v>
       </c>
       <c r="N10" s="7">
-        <v>268112</v>
+        <v>554470</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1167,10 +1167,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="D11" s="7">
-        <v>65772</v>
+        <v>112152</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1182,10 +1182,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I11" s="7">
-        <v>67012</v>
+        <v>82788</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1197,10 +1197,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="N11" s="7">
-        <v>132783</v>
+        <v>194940</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1218,10 +1218,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>268</v>
+        <v>477</v>
       </c>
       <c r="D12" s="7">
-        <v>203019</v>
+        <v>400920</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1233,10 +1233,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>460</v>
       </c>
       <c r="I12" s="7">
-        <v>197877</v>
+        <v>348491</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1248,10 +1248,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>548</v>
+        <v>937</v>
       </c>
       <c r="N12" s="7">
-        <v>400895</v>
+        <v>749410</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP31AA_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP31AA_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{004BAC7F-0391-4B7F-8F5F-E5A89AA5AAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A67C9ACD-FEB5-4868-A144-687365835BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6BCB16E4-B6CF-4F6C-A3A4-D0EE882ACB1F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6BEB69D-00D5-429F-A72D-BA63B36BB90C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si se cepillan los dientes una vez o ninguna vez al día en 2023 (Tasa respuesta: 95,99%)</t>
   </si>
@@ -65,238 +65,298 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
   </si>
   <si>
     <t>65,89%</t>
   </si>
   <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
   </si>
   <si>
     <t>68,91%</t>
   </si>
   <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -307,7 +367,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -403,39 +463,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -487,7 +547,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -598,13 +658,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -613,6 +666,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -677,19 +737,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC18CC2-5FE3-4190-961A-AA76716C044A}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2ED96E-E434-4E52-B25E-D924BEEBF038}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -806,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D4" s="7">
-        <v>38418</v>
+        <v>32305</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -821,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I4" s="7">
-        <v>42121</v>
+        <v>27528</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -836,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="N4" s="7">
-        <v>80539</v>
+        <v>59832</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -857,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>62547</v>
+        <v>10451</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -872,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="I5" s="7">
-        <v>48139</v>
+        <v>16298</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -887,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="N5" s="7">
-        <v>110686</v>
+        <v>26749</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -908,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="D6" s="7">
-        <v>100965</v>
+        <v>42756</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -923,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="I6" s="7">
-        <v>90260</v>
+        <v>43826</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -938,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>358</v>
+        <v>158</v>
       </c>
       <c r="N6" s="7">
-        <v>191225</v>
+        <v>86581</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -961,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="D7" s="7">
-        <v>137247</v>
+        <v>67718</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -976,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="I7" s="7">
-        <v>130865</v>
+        <v>66632</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -991,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>358</v>
+        <v>223</v>
       </c>
       <c r="N7" s="7">
-        <v>268112</v>
+        <v>134350</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1012,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="D8" s="7">
-        <v>65772</v>
+        <v>104852</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1027,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="I8" s="7">
-        <v>67012</v>
+        <v>91742</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1042,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>190</v>
+        <v>307</v>
       </c>
       <c r="N8" s="7">
-        <v>132783</v>
+        <v>196594</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1063,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D9" s="7">
-        <v>203019</v>
+        <v>172570</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1078,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="I9" s="7">
-        <v>197877</v>
+        <v>158374</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1093,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="N9" s="7">
-        <v>400895</v>
+        <v>330944</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1116,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="D10" s="7">
-        <v>288768</v>
+        <v>61370</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1131,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>361</v>
+        <v>58</v>
       </c>
       <c r="I10" s="7">
-        <v>265703</v>
+        <v>41735</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1146,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>704</v>
+        <v>135</v>
       </c>
       <c r="N10" s="7">
-        <v>554470</v>
+        <v>103105</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1167,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="D11" s="7">
-        <v>112152</v>
+        <v>139213</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1182,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="I11" s="7">
-        <v>82788</v>
+        <v>134378</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1197,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>233</v>
+        <v>339</v>
       </c>
       <c r="N11" s="7">
-        <v>194940</v>
+        <v>273591</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1218,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>477</v>
+        <v>241</v>
       </c>
       <c r="D12" s="7">
-        <v>400920</v>
+        <v>200583</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1233,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>460</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>348491</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1248,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>937</v>
+        <v>474</v>
       </c>
       <c r="N12" s="7">
-        <v>749410</v>
+        <v>376696</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1265,55 +1345,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>588</v>
+        <v>93</v>
       </c>
       <c r="D13" s="7">
-        <v>464434</v>
+        <v>79077</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="7">
         <v>71</v>
       </c>
-      <c r="H13" s="7">
-        <v>619</v>
-      </c>
       <c r="I13" s="7">
-        <v>438688</v>
+        <v>62044</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1207</v>
+        <v>164</v>
       </c>
       <c r="N13" s="7">
-        <v>903121</v>
+        <v>141122</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1322,49 +1402,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>347</v>
+        <v>248</v>
       </c>
       <c r="D14" s="7">
-        <v>240470</v>
+        <v>209917</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="I14" s="7">
-        <v>197940</v>
+        <v>196271</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>636</v>
+        <v>517</v>
       </c>
       <c r="N14" s="7">
-        <v>438410</v>
+        <v>406188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1373,55 +1453,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>341</v>
+      </c>
+      <c r="D15" s="7">
+        <v>288994</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>340</v>
+      </c>
+      <c r="I15" s="7">
+        <v>258315</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>681</v>
+      </c>
+      <c r="N15" s="7">
+        <v>547310</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>347</v>
+      </c>
+      <c r="D16" s="7">
+        <v>240470</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>289</v>
+      </c>
+      <c r="I16" s="7">
+        <v>197940</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>636</v>
+      </c>
+      <c r="N16" s="7">
+        <v>438410</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>588</v>
+      </c>
+      <c r="D17" s="7">
+        <v>464434</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
+        <v>619</v>
+      </c>
+      <c r="I17" s="7">
+        <v>438688</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1207</v>
+      </c>
+      <c r="N17" s="7">
+        <v>903121</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>935</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>704904</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>908</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>636628</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1843</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1341531</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP31AA_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP31AA_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A67C9ACD-FEB5-4868-A144-687365835BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E19F835-3D74-47C4-8E0F-7D4E68D17934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6BEB69D-00D5-429F-A72D-BA63B36BB90C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8017E51F-2111-4BE9-A670-24B38AF55CB2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>75,56%</t>
   </si>
   <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
   </si>
   <si>
     <t>62,81%</t>
   </si>
   <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
   </si>
   <si>
     <t>69,11%</t>
   </si>
   <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>24,44%</t>
   </si>
   <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
   </si>
   <si>
     <t>37,19%</t>
   </si>
   <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
   </si>
   <si>
     <t>30,89%</t>
   </si>
   <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,112 +137,112 @@
     <t>39,24%</t>
   </si>
   <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
   </si>
   <si>
     <t>42,07%</t>
   </si>
   <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
     <t>36,28%</t>
   </si>
   <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>63,72%</t>
   </si>
   <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
+    <t>75,8%</t>
   </si>
   <si>
     <t>76,3%</t>
   </si>
   <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
   </si>
   <si>
     <t>72,63%</t>
   </si>
   <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -251,61 +251,61 @@
     <t>27,36%</t>
   </si>
   <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
   </si>
   <si>
     <t>24,02%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
   </si>
   <si>
     <t>25,78%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
   </si>
   <si>
     <t>72,64%</t>
   </si>
   <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
   </si>
   <si>
     <t>75,98%</t>
   </si>
   <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
   </si>
   <si>
     <t>74,22%</t>
   </si>
   <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
   </si>
   <si>
     <t>34,11%</t>
   </si>
   <si>
-    <t>30,97%</t>
+    <t>30,96%</t>
   </si>
   <si>
     <t>37,73%</t>
@@ -314,19 +314,19 @@
     <t>31,09%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
   </si>
   <si>
     <t>65,89%</t>
@@ -335,25 +335,25 @@
     <t>62,27%</t>
   </si>
   <si>
-    <t>69,03%</t>
+    <t>69,04%</t>
   </si>
   <si>
     <t>68,91%</t>
   </si>
   <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2ED96E-E434-4E52-B25E-D924BEEBF038}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA598E8-98F0-4CEA-97AE-009F49FAC5E3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP31AA_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP31AA_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E19F835-3D74-47C4-8E0F-7D4E68D17934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17BF17C0-D19F-48E5-9DA7-EBE0E8CB949B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8017E51F-2111-4BE9-A670-24B38AF55CB2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0F1292EB-4D32-418F-AD87-91A82B6E35F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores según si se cepillan los dientes una vez o ninguna vez al día en 2023 (Tasa respuesta: 95,99%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,226 +134,226 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA598E8-98F0-4CEA-97AE-009F49FAC5E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BF55DDD-7FA6-4CE6-94EA-AE1DB4CE7C9F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -886,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D4" s="7">
-        <v>32305</v>
+        <v>28196</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -901,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="I4" s="7">
-        <v>27528</v>
+        <v>34021</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -919,7 +919,7 @@
         <v>114</v>
       </c>
       <c r="N4" s="7">
-        <v>59832</v>
+        <v>62217</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -937,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>10451</v>
+        <v>15840</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -952,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>16298</v>
+        <v>10868</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -970,7 +970,7 @@
         <v>44</v>
       </c>
       <c r="N5" s="7">
-        <v>26749</v>
+        <v>26708</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -988,25 +988,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>78</v>
+      </c>
+      <c r="D6" s="7">
+        <v>44036</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>80</v>
       </c>
-      <c r="D6" s="7">
-        <v>42756</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>78</v>
-      </c>
       <c r="I6" s="7">
-        <v>43826</v>
+        <v>44889</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1021,7 +1021,7 @@
         <v>158</v>
       </c>
       <c r="N6" s="7">
-        <v>86581</v>
+        <v>88925</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1041,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D7" s="7">
-        <v>67718</v>
+        <v>67798</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1056,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I7" s="7">
-        <v>66632</v>
+        <v>72427</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1074,7 +1074,7 @@
         <v>223</v>
       </c>
       <c r="N7" s="7">
-        <v>134350</v>
+        <v>140225</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1092,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D8" s="7">
-        <v>104852</v>
+        <v>91110</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1107,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="I8" s="7">
-        <v>91742</v>
+        <v>106851</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1125,7 +1125,7 @@
         <v>307</v>
       </c>
       <c r="N8" s="7">
-        <v>196594</v>
+        <v>197961</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1143,25 +1143,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>257</v>
+      </c>
+      <c r="D9" s="7">
+        <v>158908</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>273</v>
       </c>
-      <c r="D9" s="7">
-        <v>172570</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>257</v>
-      </c>
       <c r="I9" s="7">
-        <v>158374</v>
+        <v>179278</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1176,7 +1176,7 @@
         <v>530</v>
       </c>
       <c r="N9" s="7">
-        <v>330944</v>
+        <v>338186</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1196,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D10" s="7">
-        <v>61370</v>
+        <v>41400</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1211,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="I10" s="7">
-        <v>41735</v>
+        <v>64952</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1229,7 +1229,7 @@
         <v>135</v>
       </c>
       <c r="N10" s="7">
-        <v>103105</v>
+        <v>106352</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1247,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D11" s="7">
-        <v>139213</v>
+        <v>131672</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1262,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="I11" s="7">
-        <v>134378</v>
+        <v>145435</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1280,7 +1280,7 @@
         <v>339</v>
       </c>
       <c r="N11" s="7">
-        <v>273591</v>
+        <v>277107</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1298,25 +1298,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>241</v>
       </c>
-      <c r="D12" s="7">
-        <v>200583</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>210387</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1331,7 +1331,7 @@
         <v>474</v>
       </c>
       <c r="N12" s="7">
-        <v>376696</v>
+        <v>383459</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1351,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D13" s="7">
-        <v>79077</v>
+        <v>82334</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1366,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="I13" s="7">
-        <v>62044</v>
+        <v>87749</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1384,7 +1384,7 @@
         <v>164</v>
       </c>
       <c r="N13" s="7">
-        <v>141122</v>
+        <v>170083</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1402,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="D14" s="7">
-        <v>209917</v>
+        <v>190849</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1417,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="I14" s="7">
-        <v>196271</v>
+        <v>217250</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1435,7 +1435,7 @@
         <v>517</v>
       </c>
       <c r="N14" s="7">
-        <v>406188</v>
+        <v>408099</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1453,25 +1453,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>340</v>
+      </c>
+      <c r="D15" s="7">
+        <v>273183</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>341</v>
       </c>
-      <c r="D15" s="7">
-        <v>288994</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>340</v>
-      </c>
       <c r="I15" s="7">
-        <v>258315</v>
+        <v>304999</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1486,7 +1486,7 @@
         <v>681</v>
       </c>
       <c r="N15" s="7">
-        <v>547310</v>
+        <v>578182</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1506,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>347</v>
+        <v>289</v>
       </c>
       <c r="D16" s="7">
-        <v>240470</v>
+        <v>219727</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -1521,10 +1521,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>289</v>
+        <v>347</v>
       </c>
       <c r="I16" s="7">
-        <v>197940</v>
+        <v>259149</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -1539,7 +1539,7 @@
         <v>636</v>
       </c>
       <c r="N16" s="7">
-        <v>438410</v>
+        <v>478876</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -1557,10 +1557,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>588</v>
+        <v>619</v>
       </c>
       <c r="D17" s="7">
-        <v>464434</v>
+        <v>429472</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -1572,10 +1572,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="I17" s="7">
-        <v>438688</v>
+        <v>480404</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -1590,7 +1590,7 @@
         <v>1207</v>
       </c>
       <c r="N17" s="7">
-        <v>903121</v>
+        <v>909876</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>103</v>
@@ -1608,25 +1608,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>908</v>
+      </c>
+      <c r="D18" s="7">
+        <v>649199</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>935</v>
       </c>
-      <c r="D18" s="7">
-        <v>704904</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>908</v>
-      </c>
       <c r="I18" s="7">
-        <v>636628</v>
+        <v>739553</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1641,7 +1641,7 @@
         <v>1843</v>
       </c>
       <c r="N18" s="7">
-        <v>1341531</v>
+        <v>1388752</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
